--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lrpap1-Lrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lrpap1-Lrp2.xlsx
@@ -543,28 +543,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H2">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I2">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J2">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N2">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.136106624577</v>
+        <v>0.3318800788940001</v>
       </c>
       <c r="R2">
-        <v>0.5444264983079999</v>
+        <v>1.327520315576</v>
       </c>
       <c r="S2">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="T2">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,22 +611,22 @@
         <v>26.900675</v>
       </c>
       <c r="I3">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J3">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N3">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.1356735543625</v>
+        <v>0.2932890926333334</v>
       </c>
       <c r="R3">
-        <v>0.814041326175</v>
+        <v>1.7597345558</v>
       </c>
       <c r="S3">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="T3">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,28 +667,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H4">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I4">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J4">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N4">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.2712430361025</v>
+        <v>0.5679168103093333</v>
       </c>
       <c r="R4">
-        <v>1.627458216615</v>
+        <v>3.407500861856</v>
       </c>
       <c r="S4">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="T4">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,28 +729,28 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H5">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I5">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J5">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N5">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.10168522881825</v>
+        <v>0.215935959148</v>
       </c>
       <c r="R5">
-        <v>0.4067409152729999</v>
+        <v>0.863743836592</v>
       </c>
       <c r="S5">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="T5">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,28 +791,28 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H6">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I6">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J6">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N6">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.08770658100049999</v>
+        <v>0.1763593227586667</v>
       </c>
       <c r="R6">
-        <v>0.526239486003</v>
+        <v>1.058155936552</v>
       </c>
       <c r="S6">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="T6">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,28 +853,28 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H7">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I7">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J7">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N7">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.2603610090235</v>
+        <v>0.6037961234760001</v>
       </c>
       <c r="R7">
-        <v>1.562166054141</v>
+        <v>3.622776740856</v>
       </c>
       <c r="S7">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="T7">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
     </row>
   </sheetData>
